--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_17-12.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_17-12.xlsx
@@ -89,9 +89,6 @@
     <t>CERVITAM 20 CAPS.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CLEAREST 14 CAPS</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>3:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -1175,7 +1172,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1193,7 +1190,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1219,7 +1216,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1227,7 +1224,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1245,7 +1242,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1253,7 +1250,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1271,7 +1268,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1297,7 +1294,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1305,7 +1302,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1323,7 +1320,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1349,7 +1346,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1375,7 +1372,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1383,7 +1380,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1401,7 +1398,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1409,7 +1406,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -1427,7 +1424,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1453,7 +1450,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1479,7 +1476,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1505,7 +1502,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1531,7 +1528,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1539,7 +1536,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1773,7 +1770,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -2111,7 +2108,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -2215,7 +2212,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -2319,7 +2316,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -2337,7 +2334,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2345,7 +2342,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -2363,7 +2360,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2371,7 +2368,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -2389,7 +2386,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2415,7 +2412,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2423,7 +2420,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
@@ -2441,7 +2438,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2449,7 +2446,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
@@ -2472,19 +2469,19 @@
     </row>
     <row r="66" ht="16.5" customHeight="1">
       <c t="s" r="A66" s="12">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c t="s" r="F66" s="13">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G66" s="13"/>
       <c r="H66" s="14"/>
       <c t="s" r="I66" s="15">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
